--- a/WebApplication3/wwwroot/Formatos/ComfoeEvaluacionalistamientoEntrenamientoComfoe.xlsx
+++ b/WebApplication3/wwwroot/Formatos/ComfoeEvaluacionalistamientoEntrenamientoComfoe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SIESMAR\siesmar\WebApplication3\wwwroot\Formatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D780AFF2-8883-4299-AFF5-80A7C9EDEC76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBEB63D-A6FA-409B-95E1-749B3DC1DC63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7520" xr2:uid="{3CA8D8E7-0FC5-453E-A5A9-4E1A4E0284B6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>UNIDAD</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>FM52</t>
+  </si>
+  <si>
+    <t>O.200-GES</t>
+  </si>
+  <si>
+    <t>O.105-GES</t>
   </si>
 </sst>
 </file>
@@ -423,7 +429,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -462,8 +468,8 @@
       <c r="B2" s="2">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D2" s="2">
         <v>66</v>
@@ -482,8 +488,8 @@
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
-        <v>2</v>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D3" s="2">
         <v>666</v>
@@ -502,8 +508,8 @@
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
-        <v>1</v>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D4" s="2">
         <v>69</v>
@@ -522,8 +528,8 @@
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
-        <v>2</v>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D5" s="2">
         <v>5</v>
